--- a/MySudokuGame/Rating/Rating.xlsx
+++ b/MySudokuGame/Rating/Rating.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Rating" sheetId="1" r:id="rId1"/>
+    <sheet name="Rating" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,28 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>№</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>Hard</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>00:14:85</t>
+  </si>
+  <si>
+    <t>00:14:77</t>
+  </si>
+  <si>
+    <t>01:14:81</t>
+  </si>
+  <si>
+    <t>00:13:87</t>
+  </si>
+  <si>
+    <t>01:07:18</t>
+  </si>
+  <si>
+    <t>00:13:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,27 +77,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -83,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -364,29 +372,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="A2" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MySudokuGame/Rating/Rating.xlsx
+++ b/MySudokuGame/Rating/Rating.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Easy</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>00:13:18</t>
+  </si>
+  <si>
+    <t>00:17:60</t>
+  </si>
+  <si>
+    <t>00:44:94</t>
+  </si>
+  <si>
+    <t>00:07:54</t>
+  </si>
+  <si>
+    <t>03:32:84</t>
+  </si>
+  <si>
+    <t>01:14:28</t>
+  </si>
+  <si>
+    <t>01:30:01</t>
+  </si>
+  <si>
+    <t>00:05:39</t>
+  </si>
+  <si>
+    <t>00:06:16</t>
+  </si>
+  <si>
+    <t>00:34:93</t>
+  </si>
+  <si>
+    <t>01:06:20</t>
   </si>
 </sst>
 </file>
@@ -372,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:C5"/>
@@ -419,6 +449,56 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
